--- a/public/informes/1934/1934_0_2_2021_04_16.xlsx
+++ b/public/informes/1934/1934_0_2_2021_04_16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.26.0.12\samba-share\CARPETA COMÚ\INFORMES MOTLLES\Terminados\1934_0_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.26.0.13\CompartidaFabrica\INFORMES MOTLLES\Terminados\1934\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11850" windowHeight="4830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="1934_0_2" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-De las dos cavidades afectadas se han cambiado un cilindro neumatico defectuo.
+De las dos cavidades afectadas se han cambiado un cilindro neumatico defectuso.
 Se han colocado juego de juntas y retenes nuevos en las dos cavidades.
 Hemos adelantado las valvulas tocando el cono de ajuste de la valvulas.
 Se ha fabricado el distrubuidor de mangeras exterior donde se conectan las mangeras de refrigeracion de los cilindros pues estabn las rocas pasadas y perdia agua.
@@ -333,40 +333,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -374,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -433,7 +433,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -736,7 +736,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +771,7 @@
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -806,180 +806,180 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>44166</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="11"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12">
         <v>44169</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>44174</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="11"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="13">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12">
         <v>44176</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>44180</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="11"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12">
         <v>44183</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>44187</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="11"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14">
         <v>44200</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>44251</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="11"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14">
         <v>44267</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="23">
+        <v>44272</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <v>44272</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="24">
-        <v>44272</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="369" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23">
         <v>44302</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
